--- a/data7.xlsx
+++ b/data7.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Documents\University of Nevada in Reno\Finance Research\New Valuation Measure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE0590-C39B-4406-B437-7AFAD2675A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1DD62-C218-4E47-AB73-33CA29E67DD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999999999994451E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -154,7 +154,7 @@
     <t>Earnings per share of the Standard &amp; Poor Composite Index, annual 1871-2020</t>
   </si>
   <si>
-    <t>Average January daily close, Standard &amp; Poor Composite Index, 1871-2021</t>
+    <t>Average monthly close, Standard &amp; Poor Composite Index, January 1871-January 2021</t>
   </si>
   <si>
     <t>1919-2021</t>
@@ -228,18 +228,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -269,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -304,16 +298,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -659,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -4579,11 +4570,11 @@
       <c r="A151" s="2">
         <v>2020</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="14">
         <v>58.28</v>
       </c>
       <c r="C151" s="14">
-        <v>98.22</v>
+        <v>94.13</v>
       </c>
       <c r="D151" s="5">
         <v>3278.2</v>
@@ -4605,13 +4596,13 @@
       <c r="A152" s="2">
         <v>2021</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="14">
         <v>3793.75</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="17">
         <v>261.58199999999999</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="15">
         <v>2.4500000000000002</v>
       </c>
       <c r="G152" s="16">
@@ -4626,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1BB09-CD8F-4AED-ADCB-36F73DDD8290}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4805,6 +4796,7 @@
         <v>26</v>
       </c>
     </row>
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="17.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data7.xlsx
+++ b/data7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNR Math Stat\OneDrive\Documents\University of Nevada in Reno\Finance Research\New Valuation Measure\stat-risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1DD62-C218-4E47-AB73-33CA29E67DD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D0830-C1E7-4CF4-B99B-4F6E1B9810AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AC4C9AC3-CD2B-49D9-9D0C-39770D3B8654}</author>
+  </authors>
+  <commentList>
+    <comment ref="C152" authorId="0" shapeId="0" xr:uid="{AC4C9AC3-CD2B-49D9-9D0C-39770D3B8654}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    EPS Q1, Q2, Q3 known; EPS Q4 approximated proportionally to quarterly dividends from EPS Q3</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -148,25 +166,25 @@
     <t>1957-2021: Standard &amp; Poor 500</t>
   </si>
   <si>
-    <t>Dividends per share of the Standard &amp; Poor Composite Index, annual 1871-2020</t>
+    <t>Dividends per share of the Standard &amp; Poor Composite Index, annual 1871-2021</t>
   </si>
   <si>
-    <t>Earnings per share of the Standard &amp; Poor Composite Index, annual 1871-2020</t>
+    <t>Earnings per share of the Standard &amp; Poor Composite Index, annual 1871-2021</t>
   </si>
   <si>
-    <t>Average monthly close, Standard &amp; Poor Composite Index, January 1871-January 2021</t>
+    <t>Average monthly close, Standard &amp; Poor Composite Index, January 1871-January 2022</t>
   </si>
   <si>
-    <t>1919-2021</t>
+    <t>1919-2022</t>
   </si>
   <si>
-    <t>1954-2021</t>
+    <t>1954-2022</t>
   </si>
   <si>
-    <t>2012-2021</t>
+    <t>2012-2022</t>
   </si>
   <si>
-    <t>1871-2021</t>
+    <t>1871-2022</t>
   </si>
 </sst>
 </file>
@@ -228,12 +246,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -263,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -310,6 +334,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +352,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrey Sarantsev" id="{E40E50FA-A4A1-4F86-B003-255FA7E8BC75}" userId="Andrey Sarantsev" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,12 +679,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C152" dT="2022-02-20T03:40:34.14" personId="{E40E50FA-A4A1-4F86-B003-255FA7E8BC75}" id="{AC4C9AC3-CD2B-49D9-9D0C-39770D3B8654}">
+    <text>EPS Q1, Q2, Q3 known; EPS Q4 approximated proportionally to quarterly dividends from EPS Q3</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
@@ -4596,6 +4637,12 @@
       <c r="A152" s="2">
         <v>2021</v>
       </c>
+      <c r="B152" s="5">
+        <v>60.91</v>
+      </c>
+      <c r="C152" s="18">
+        <v>194.89</v>
+      </c>
       <c r="D152" s="14">
         <v>3793.75</v>
       </c>
@@ -4607,11 +4654,32 @@
       </c>
       <c r="G152" s="16">
         <v>1.08</v>
+      </c>
+      <c r="H152" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D153" s="5">
+        <v>4573.82</v>
+      </c>
+      <c r="E153" s="3">
+        <v>281.14800000000002</v>
+      </c>
+      <c r="F153" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4619,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D1BB09-CD8F-4AED-ADCB-36F73DDD8290}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
